--- a/medicine/Enfance/Ulises_Wensell/Ulises_Wensell.xlsx
+++ b/medicine/Enfance/Ulises_Wensell/Ulises_Wensell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ulises Wensell, né le 20 octobre 1945 à Madrid et mort le 29 novembre 2011 à Madrid[1], est un illustrateur espagnol qui travaille pour la presse et l'édition française, notamment pour le groupe Bayard presse. Il a reçu diverses récompenses, dont le Prix national d'illustration (es) (Premio nacional de ilustración) dans son pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulises Wensell, né le 20 octobre 1945 à Madrid et mort le 29 novembre 2011 à Madrid, est un illustrateur espagnol qui travaille pour la presse et l'édition française, notamment pour le groupe Bayard presse. Il a reçu diverses récompenses, dont le Prix national d'illustration (es) (Premio nacional de ilustración) dans son pays.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1988, l'ouvrage jeunesse Un petit monsieur très sérieux  qu'il a illustré, sur un texte d'Alain Thomas, obtient la "Mention" Prix critique en herbe, de  la Foire du livre de jeunesse de Bologne[2] (Italie).
-Il est l'illustrateur de la série Ti-Michou et Gros-Cachou d'Anne-Marie Chapouton et Marie-Hélène Delval pour Pomme d'Api[3] et de nombreux récits des Belles Histoires : Les Souliers de Chloé de Chantal de Marolles, Le petit monsieur tout seul de Barbro Lindgren, Poulou et Sébastien de René Escudié, Un petit frère pour toujours de Marie-Hélène Delval, Mélanie Pilou d'Anne-Marie Chapouton, Emile bille de clown, Les trois sœurs de Martin de Frédérique Ganzl...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1988, l'ouvrage jeunesse Un petit monsieur très sérieux  qu'il a illustré, sur un texte d'Alain Thomas, obtient la "Mention" Prix critique en herbe, de  la Foire du livre de jeunesse de Bologne (Italie).
+Il est l'illustrateur de la série Ti-Michou et Gros-Cachou d'Anne-Marie Chapouton et Marie-Hélène Delval pour Pomme d'Api et de nombreux récits des Belles Histoires : Les Souliers de Chloé de Chantal de Marolles, Le petit monsieur tout seul de Barbro Lindgren, Poulou et Sébastien de René Escudié, Un petit frère pour toujours de Marie-Hélène Delval, Mélanie Pilou d'Anne-Marie Chapouton, Emile bille de clown, Les trois sœurs de Martin de Frédérique Ganzl...
 Il a publié également chez Gautier-Languereau : Qui a du temps pour Petit-ours ?, Qui veut ma petite sœur ?, Reste mon ami Petit-Ours !, Nous t'aimons fort, Petit Ours d'Ursel Scheffler ; N'aie pas peur petit Léo ! de Paloma Wensell ; Bob est fier d'être un grand frère.
 </t>
         </is>
@@ -544,13 +558,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1978 : Prix national d'illustration (es) pour Don Blanquisucio
-1978 : (international) « Honour List »[4], de l' IBBY, catégorie Illustration, pour Soy una estation
+1978 : (international) « Honour List », de l' IBBY, catégorie Illustration, pour Soy una estation
 1979 : Prix Lazarillo (es), catégorie Illustration, pour Cuando sea mayor seré marino (Plus tard, je serai marin)
-1988 : "Mention" Prix critique en herbe, de  la Foire du livre de jeunesse de Bologne[2]  (Italie) pour Un petit monsieur très sérieux  qu'il a illustré, sur un texte d'Alain Thomas
-2008 : Sélection Prix Hans Christian Andersen[5] catégorie Illustration</t>
+1988 : "Mention" Prix critique en herbe, de  la Foire du livre de jeunesse de Bologne  (Italie) pour Un petit monsieur très sérieux  qu'il a illustré, sur un texte d'Alain Thomas
+2008 : Sélection Prix Hans Christian Andersen catégorie Illustration</t>
         </is>
       </c>
     </row>
